--- a/data/HLTH.xlsx
+++ b/data/HLTH.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -498,12 +588,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>one of the following: HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260. Recommended: HLTH 101.</t>
+          <t>one of the HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>HLTH 101.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -520,12 +625,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260. Recommended: KINE 319 and STAT 218.</t>
+          <t>HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>KINE 319 and STAT 218.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -542,12 +662,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260. Recommended: FSN 210 and HLTH/KINE 265.</t>
+          <t>HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>FSN 210 and HLTH/KINE 265.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -586,12 +736,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HLTH/KINE 265; and STAT 217 or STAT 218. Recommended: MCRO 221 or MCRO 224.</t>
+          <t>HLTH/KINE 265; and STAT 217 or STAT 218.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MCRO 221 or MCRO 224.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HLTH 101; HLTH/KINE 298; and PSY 201 or PSY 202.</t>
+          <t>HLTH 101; HLTH/KINE 298; and PSY 201 or PSY 202.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -630,12 +810,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BIO 231; and one of the following: HLTH/KINE 250; HLTH/KINE 255; HLTH/KINE 260; or HLTH/KINE 443. Recommended: BIO 232.</t>
+          <t>BIO 231; and one of the HLTH/KINE 250; HLTH/KINE 255; HLTH/KINE 260; or HLTH/KINE 443.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>BIO 232.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BIO 231; BIO 232; and HLTH/KINE 265.</t>
+          <t>BIO 231; BIO 232; and HLTH/KINE 265.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -674,12 +884,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better; KINE 180 or HLTH/KINE 265; and one of the following: HLTH/KINE 250, HTLH/KINE 255, or HLTH/KINE 260. Recommended: HLTH 299.</t>
+          <t>Completion of GE Area A with grades of C- or better; KINE 180 or HLTH/KINE 265; and one of the HLTH/KINE 250, HTLH/KINE 255, or HLTH/KINE 260.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>HLTH 299.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -696,12 +921,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HLTH/KINE 298. Recommended: HLTH 299; and PSY 201 or PSY 202.</t>
+          <t>HLTH/KINE 298.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>HLTH 299; and PSY 201 or PSY 202.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -762,12 +1032,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HLTH 299; HLTH 334; and STAT 313. Recommended: HLTH 310.</t>
+          <t>HLTH 299; HLTH 334; and STAT 313.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>HLTH 310.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BIO 231; BIO 232; HLTH 299 or KINE 304; and HLTH 334 or KINE 266.</t>
+          <t>BIO 231; BIO 232; HLTH 299 or KINE 304; and HLTH 334 or KINE 266.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Junior standing; Completion of GE Areas D1, D2, D3, and D4/E; and ANT 360, or HLTH 298 and HLTH 334, or MCRO 221, or MCRO 224.</t>
+          <t>Junior standing; Completion of GE Areas D1, D2, D3, and D4/E; and ANT 360, or HLTH 298 and HLTH 334, or MCRO 221, or MCRO 224.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HLTH/KINE 265; HLTH/KINE 298; and KINE 266 or HLTH 334.</t>
+          <t>HLTH/KINE 265; HLTH/KINE 298; and KINE 266 or HLTH 334.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HLTH/KINE 320; and HLTH/KINE 434.</t>
+          <t>HLTH/KINE 320; and HLTH/KINE 434.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -916,12 +1291,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>one of the following: HLTH/KINE 250; HLTH/KINE 255; or HLTH/KINE 260; and KINE 266 or HLTH 334. Recommended: HLTH/KINE 320.</t>
+          <t>one of the HLTH/KINE 250; HLTH/KINE 255; or HLTH/KINE 260; and KINE 266 or HLTH 334.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>HLTH/KINE 320.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -938,12 +1328,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FSN 210 or KINE 451; and one of the following: HLTH/KINE 298, KINE 304, or FSN 310. Recommended: HLTH 405; and one of the following: KINE 266, HLTH 334, or FSN 415.</t>
+          <t>FSN 210 or KINE 451; and one of the HLTH/KINE 298, KINE 304, or FSN 310.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>HLTH 405; and one of the KINE 266, HLTH 334, or FSN 415.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -960,12 +1365,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HLTH 402; KINE 320; KINE 434; completion of GE Area A with a grade of C- or better; completion of graduation writing requirement; and senior standing. Recommended: KINE 435.</t>
+          <t>HLTH 402; KINE 320; KINE 434; completion of GE Area A with a grade of C- or better; completion of graduation writing requirement; and senior standing.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>KINE 435.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -982,12 +1402,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HLTH 402; KINE 320; KINE 434; completion of GE Area A with a grade of C- or better; completion of graduation writing requirement; and senior standing. Recommended: KINE 435.</t>
+          <t>HLTH 402; KINE 320; KINE 434; completion of GE Area A with a grade of C- or better; completion of graduation writing requirement; and senior standing.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>KINE 435.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1004,12 +1439,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HLTH 402; KINE 320; KINE 434; completion of GE Area A with a grade of C- or better; completion of graduation writing requirement; senior standing and consent of instructor. Recommended: KINE 435.</t>
+          <t>HLTH 402; KINE 320; KINE 434; completion of GE Area A with a grade of C- or better; completion of graduation writing requirement; senior standing and consent of instructor.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>KINE 435.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Senior standing; completion of graduation writing requirement; minimum GPA of 3.0; KINE 434; and KINE 435.</t>
+          <t>Senior standing; completion of graduation writing requirement; minimum GPA of 3.0; KINE 434; and KINE 435.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
